--- a/FRONDOSO, AILEEN.xlsx
+++ b/FRONDOSO, AILEEN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,45 @@
   </si>
   <si>
     <t>9/21,22,28,29/2023</t>
+  </si>
+  <si>
+    <t>10/12-13, 19-20/2023</t>
+  </si>
+  <si>
+    <t>10/5-6/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>10/26-29/2023</t>
+  </si>
+  <si>
+    <t>11/9,10,16,17,23,24/2023</t>
+  </si>
+  <si>
+    <t>12/2,3/2023</t>
+  </si>
+  <si>
+    <t>12/1,6,7,14,15/2023</t>
+  </si>
+  <si>
+    <t>11/29,30/2023</t>
+  </si>
+  <si>
+    <t>12/9,10,13-17,20-22/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/23,24,27,28,29/2023</t>
+  </si>
+  <si>
+    <t>12/30,31/2023</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1226,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1269,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1393,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1522,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1620,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1679,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1744,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1787,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1862,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2048,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2114,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2172,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2238,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2294,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2369,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2412,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2478,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2534,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2630,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2968,12 +3007,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3173,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3144,7 +3183,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4645,13 +4684,15 @@
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4663,13 +4704,15 @@
         <v>45200</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4681,13 +4724,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4698,9 +4743,13 @@
       <c r="A87" s="40">
         <v>45261</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -4710,11 +4759,13 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45292</v>
+      <c r="A88" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4732,7 +4783,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4750,7 +4801,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4768,7 +4819,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4786,7 +4837,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4804,7 +4855,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4822,7 +4873,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4839,7 +4890,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45474</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5479,20 +5532,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5542,9 +5611,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5705,7 +5774,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.75</v>
+        <v>32.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5715,7 +5784,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6193,10 +6262,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>4</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
@@ -6206,11 +6281,15 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6219,16 +6298,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>2</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>4</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
@@ -6238,13 +6325,21 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>6</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
@@ -6254,11 +6349,15 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -6267,14 +6366,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
@@ -6283,16 +6390,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>2</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39">
+        <v>5</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
@@ -6302,11 +6417,15 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
@@ -6315,16 +6434,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>2</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>10</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -6334,13 +6461,19 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -6350,7 +6483,9 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
@@ -7794,17 +7929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7837,7 +7972,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,6 +8066,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7952,6 +8090,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>147.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
